--- a/Game/Map/Stage2/Vartical.xlsx
+++ b/Game/Map/Stage2/Vartical.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waru5\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA55751-01D1-4192-A5C2-C41203CB6861}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="45" windowWidth="16320" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="45" windowWidth="16320" windowHeight="15495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -519,11 +518,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -800,7 +799,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -833,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -920,10 +919,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
         <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -1014,10 +1013,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
         <v>2</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -1566,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -1584,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -2358,7 +2357,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
@@ -2367,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -2382,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J49" s="1">
         <v>0</v>
@@ -2391,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">

--- a/Game/Map/Stage2/Vartical.xlsx
+++ b/Game/Map/Stage2/Vartical.xlsx
@@ -24,12 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>0+A1:L69</t>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -73,18 +68,80 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="57">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -140,7 +197,139 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -587,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L137"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1595,13 +1784,13 @@
         <v>0</v>
       </c>
       <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
         <v>2</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
       <c r="E27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1613,13 +1802,13 @@
         <v>0</v>
       </c>
       <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>2</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
       <c r="K27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -3031,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>0</v>
       </c>
@@ -3069,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>0</v>
       </c>
@@ -3107,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>0</v>
       </c>
@@ -3145,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -3183,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>0</v>
       </c>
@@ -3217,11 +3406,12 @@
       <c r="K69" s="1">
         <v>0</v>
       </c>
-      <c r="L69" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L69" s="1">
+        <v>0</v>
+      </c>
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>8</v>
       </c>
@@ -3259,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -3297,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>0</v>
       </c>
@@ -3335,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>0</v>
       </c>
@@ -3373,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -3411,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>4</v>
       </c>
@@ -3449,7 +3639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>0</v>
       </c>
@@ -3487,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>0</v>
       </c>
@@ -3525,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>0</v>
       </c>
@@ -3563,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>0</v>
       </c>
@@ -3601,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>0</v>
       </c>
@@ -5807,108 +5997,108 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="M1:BR10 A68:L137">
-    <cfRule type="cellIs" dxfId="30" priority="17" operator="equal">
+  <conditionalFormatting sqref="M1:BR10 A68:L137 M69">
+    <cfRule type="cellIs" dxfId="56" priority="17" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="24" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="25" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="26" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="27" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="28" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="29" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:BR10 A68:L137">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+  <conditionalFormatting sqref="M1:BR10 A68:L137 M69">
+    <cfRule type="cellIs" dxfId="47" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1:BR10">
-    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="18" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="19" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="20" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="21" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="22" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:BS10 A68:L137">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+  <conditionalFormatting sqref="M1:BS10 A68:L137 M69">
+    <cfRule type="cellIs" dxfId="41" priority="16" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68:L137">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+  <conditionalFormatting sqref="A68:L137 M69">
+    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="12" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="14" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:L69">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+  <conditionalFormatting sqref="A1:L69 M69">
+    <cfRule type="cellIs" dxfId="33" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
